--- a/data/brief/briefSchool/Teachers/g_7-8_S.xlsx
+++ b/data/brief/briefSchool/Teachers/g_7-8_S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Layosh_shares\breif\breifSchool\Teachers\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\brief\briefSchool\Teachers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7488113C-BFF2-40C3-B3CE-CDB88FED1E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA17E6EB-74C6-48B3-BC3D-2F46A28A2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31275" yWindow="1050" windowWidth="23790" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,693 +423,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
       <c r="B2">
         <v>86</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>109</v>
       </c>
-      <c r="E2">
-        <v>99</v>
-      </c>
-      <c r="J2">
+      <c r="F2">
         <v>83</v>
       </c>
-      <c r="L2">
+      <c r="G2">
         <v>89</v>
       </c>
-      <c r="P2">
+      <c r="I2">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>29</v>
       </c>
       <c r="B3">
         <v>84</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>105</v>
       </c>
-      <c r="E3">
-        <v>99</v>
-      </c>
-      <c r="J3">
+      <c r="F3">
         <v>81</v>
       </c>
-      <c r="L3">
+      <c r="G3">
         <v>87</v>
       </c>
-      <c r="P3">
+      <c r="I3">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28</v>
       </c>
       <c r="B4">
         <v>82</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>102</v>
       </c>
-      <c r="E4">
-        <v>99</v>
-      </c>
-      <c r="J4">
+      <c r="F4">
         <v>79</v>
       </c>
-      <c r="L4">
+      <c r="G4">
         <v>85</v>
       </c>
-      <c r="P4">
+      <c r="I4">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
       <c r="B5">
         <v>80</v>
       </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
       <c r="D5">
         <v>99</v>
       </c>
-      <c r="E5">
-        <v>99</v>
-      </c>
       <c r="F5">
-        <v>99</v>
-      </c>
-      <c r="J5">
         <v>77</v>
       </c>
-      <c r="L5">
+      <c r="G5">
         <v>82</v>
       </c>
-      <c r="P5">
+      <c r="I5">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
       <c r="B6">
         <v>78</v>
       </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
       <c r="D6">
-        <v>95</v>
-      </c>
-      <c r="E6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="J6">
         <v>75</v>
       </c>
-      <c r="L6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="P6">
+      <c r="I6">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
         <v>76</v>
       </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
       <c r="D7">
-        <v>92</v>
-      </c>
-      <c r="E7">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>93</v>
-      </c>
-      <c r="J7">
         <v>73</v>
       </c>
-      <c r="L7">
+      <c r="G7">
         <v>78</v>
       </c>
-      <c r="P7">
+      <c r="I7">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
       <c r="B8">
         <v>74</v>
       </c>
+      <c r="C8">
+        <v>89</v>
+      </c>
       <c r="D8">
-        <v>89</v>
-      </c>
-      <c r="E8">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F8">
-        <v>90</v>
-      </c>
-      <c r="J8">
         <v>71</v>
       </c>
-      <c r="L8">
+      <c r="G8">
         <v>75</v>
       </c>
-      <c r="P8">
+      <c r="I8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
       <c r="B9">
         <v>72</v>
       </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
       <c r="D9">
-        <v>86</v>
-      </c>
-      <c r="E9">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>87</v>
-      </c>
-      <c r="J9">
         <v>69</v>
       </c>
-      <c r="L9">
+      <c r="G9">
         <v>73</v>
       </c>
-      <c r="P9">
+      <c r="I9">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10">
         <v>69</v>
       </c>
+      <c r="C10">
+        <v>82</v>
+      </c>
       <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>84</v>
-      </c>
-      <c r="J10">
         <v>67</v>
       </c>
-      <c r="L10">
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="P10">
+      <c r="I10">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
       <c r="B11">
         <v>67</v>
       </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
       <c r="D11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>68</v>
       </c>
       <c r="H11">
-        <v>88</v>
-      </c>
-      <c r="J11">
-        <v>65</v>
-      </c>
-      <c r="L11">
+        <v>83</v>
+      </c>
+      <c r="I11">
         <v>68</v>
       </c>
-      <c r="N11">
-        <v>83</v>
-      </c>
-      <c r="P11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
         <v>65</v>
       </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
       <c r="D12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F12">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>85</v>
-      </c>
-      <c r="J12">
-        <v>63</v>
-      </c>
-      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="I12">
         <v>66</v>
       </c>
-      <c r="N12">
-        <v>80</v>
-      </c>
-      <c r="P12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
       <c r="B13">
         <v>63</v>
       </c>
+      <c r="C13">
+        <v>73</v>
+      </c>
       <c r="D13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>82</v>
-      </c>
-      <c r="J13">
-        <v>61</v>
-      </c>
-      <c r="L13">
+        <v>78</v>
+      </c>
+      <c r="I13">
         <v>63</v>
       </c>
-      <c r="N13">
-        <v>78</v>
-      </c>
-      <c r="P13">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
       <c r="B14">
         <v>61</v>
       </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
       <c r="D14">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>78</v>
-      </c>
-      <c r="J14">
-        <v>59</v>
-      </c>
-      <c r="L14">
+        <v>75</v>
+      </c>
+      <c r="I14">
         <v>61</v>
       </c>
-      <c r="N14">
-        <v>75</v>
-      </c>
-      <c r="P14">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
         <v>59</v>
       </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
       <c r="D15">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>59</v>
       </c>
       <c r="H15">
-        <v>75</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-      <c r="L15">
-        <v>59</v>
-      </c>
-      <c r="N15">
         <v>72</v>
       </c>
-      <c r="P15">
+      <c r="I15">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>57</v>
       </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
       <c r="D16">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F16">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>56</v>
       </c>
       <c r="H16">
-        <v>72</v>
-      </c>
-      <c r="J16">
-        <v>55</v>
-      </c>
-      <c r="L16">
+        <v>69</v>
+      </c>
+      <c r="I16">
         <v>56</v>
       </c>
-      <c r="N16">
-        <v>69</v>
-      </c>
-      <c r="P16">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>54</v>
       </c>
+      <c r="C17">
+        <v>59</v>
+      </c>
       <c r="D17">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F17">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>54</v>
       </c>
       <c r="H17">
-        <v>68</v>
-      </c>
-      <c r="J17">
-        <v>53</v>
-      </c>
-      <c r="L17">
+        <v>66</v>
+      </c>
+      <c r="I17">
         <v>54</v>
       </c>
-      <c r="N17">
-        <v>66</v>
-      </c>
-      <c r="P17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
         <v>52</v>
       </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
       <c r="D18">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>52</v>
       </c>
       <c r="H18">
-        <v>65</v>
-      </c>
-      <c r="J18">
+        <v>64</v>
+      </c>
+      <c r="I18">
         <v>51</v>
       </c>
-      <c r="L18">
-        <v>52</v>
-      </c>
-      <c r="N18">
-        <v>64</v>
-      </c>
-      <c r="P18">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19">
         <v>50</v>
       </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
       <c r="D19">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>49</v>
       </c>
       <c r="H19">
-        <v>62</v>
-      </c>
-      <c r="J19">
-        <v>48</v>
-      </c>
-      <c r="L19">
+        <v>61</v>
+      </c>
+      <c r="I19">
         <v>49</v>
       </c>
-      <c r="N19">
-        <v>61</v>
-      </c>
-      <c r="P19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20">
         <v>48</v>
       </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
       <c r="D20">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F20">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>47</v>
       </c>
       <c r="H20">
         <v>58</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>46</v>
       </c>
-      <c r="L20">
-        <v>47</v>
-      </c>
-      <c r="N20">
-        <v>58</v>
-      </c>
-      <c r="P20">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21">
         <v>46</v>
       </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
       <c r="D21">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>55</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>44</v>
       </c>
       <c r="H21">
         <v>55</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>44</v>
       </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>55</v>
-      </c>
-      <c r="P21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22">
         <v>44</v>
       </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
       <c r="D22">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
       </c>
       <c r="H22">
         <v>52</v>
       </c>
-      <c r="J22">
-        <v>42</v>
-      </c>
-      <c r="L22">
-        <v>42</v>
-      </c>
-      <c r="N22">
-        <v>52</v>
-      </c>
-      <c r="P22">
+      <c r="I22">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="D23">
         <v>44</v>
       </c>
+      <c r="E23">
+        <v>48</v>
+      </c>
       <c r="H23">
-        <v>48</v>
-      </c>
-      <c r="N23">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
+      <c r="E24">
+        <v>45</v>
+      </c>
       <c r="H24">
-        <v>45</v>
-      </c>
-      <c r="N24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
       <c r="H25">
-        <v>42</v>
-      </c>
-      <c r="N25">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B25 E1 D2:F25 H2:H25 J2:J25 L2:L25 N2:N25 P2:P25" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B25 C2:C25 E2:E25 F2:F25 G2:G25 H2:H25 I2:I25 D2:D25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>